--- a/app/main/cc_header.xlsx
+++ b/app/main/cc_header.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">晋江吉迅供应链管理有限公司——申报清单(包裹)</t>
   </si>
@@ -63,10 +63,16 @@
     <t xml:space="preserve">件数</t>
   </si>
   <si>
-    <t xml:space="preserve">重量</t>
+    <t xml:space="preserve">提单重量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">派送重量</t>
   </si>
   <si>
     <t xml:space="preserve">数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">实际数量</t>
   </si>
   <si>
     <t xml:space="preserve">单位</t>
@@ -133,12 +139,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.00_ "/>
+    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -167,41 +174,47 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CC00"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -219,10 +232,18 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF3C3C3C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3C3C3C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3C3C3C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3C3C3C"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -251,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -272,24 +293,64 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -301,6 +362,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF3C3C3C"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -309,262 +430,168 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z65536"/>
+  <dimension ref="A1:AB65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.35849056603774"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.0990566037736"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="9.35849056603774"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.8584905660377"/>
-    <col collapsed="false" hidden="false" max="19" min="7" style="1" width="9.35849056603774"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="9.35849056603774"/>
-    <col collapsed="false" hidden="false" max="238" min="22" style="3" width="9.35849056603774"/>
-    <col collapsed="false" hidden="false" max="240" min="239" style="4" width="9.35849056603774"/>
-    <col collapsed="false" hidden="false" max="249" min="241" style="3" width="9.35849056603774"/>
-    <col collapsed="false" hidden="false" max="250" min="250" style="0" width="9.35849056603774"/>
-    <col collapsed="false" hidden="false" max="257" min="251" style="3" width="9.35849056603774"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="9.35849056603774"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.73584905660377"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.7264150943396"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="9.73584905660377"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3584905660377"/>
+    <col collapsed="false" hidden="false" max="19" min="7" style="1" width="9.73584905660377"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="9.73584905660377"/>
+    <col collapsed="false" hidden="false" max="238" min="22" style="3" width="9.73584905660377"/>
+    <col collapsed="false" hidden="false" max="240" min="239" style="4" width="9.73584905660377"/>
+    <col collapsed="false" hidden="false" max="249" min="241" style="3" width="9.73584905660377"/>
+    <col collapsed="false" hidden="false" max="250" min="250" style="0" width="9.73584905660377"/>
+    <col collapsed="false" hidden="false" max="257" min="251" style="3" width="9.73584905660377"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="9.73584905660377"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="K1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="11" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="K2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="11" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+      <c r="D3" s="10"/>
+      <c r="F3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="K3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="11" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="F4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="K4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="11" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
+      <c r="B5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="K5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="6" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="W6" s="8" t="s">
+      <c r="W6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="X6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Y6" s="8" t="s">
+      <c r="Y6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="8" t="s">
+      <c r="Z6" s="16" t="s">
         <v>33</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -572,7 +599,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.120138888888889" right="0.0402777777777778" top="0.159722222222222" bottom="0.230555555555556" header="0.511805555555555" footer="0.140277777777778"/>
@@ -597,7 +624,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35849056603774"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.73584905660377"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/main/cc_header.xlsx
+++ b/app/main/cc_header.xlsx
@@ -25,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">晋江吉迅供应链管理有限公司——申报清单(包裹)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t xml:space="preserve">进口文档生成-导入模板</t>
   </si>
   <si>
     <t xml:space="preserve">目的地：</t>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">客户</t>
   </si>
   <si>
-    <t xml:space="preserve">吉迅</t>
+    <t xml:space="preserve">晋江吉迅供应链管理有限公司</t>
   </si>
   <si>
     <t xml:space="preserve">主提单号：</t>
@@ -57,7 +57,10 @@
     <t xml:space="preserve">分运单号</t>
   </si>
   <si>
-    <t xml:space="preserve">货物品名</t>
+    <t xml:space="preserve">货物中文名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">货物英文名称</t>
   </si>
   <si>
     <t xml:space="preserve">件数</t>
@@ -117,7 +120,7 @@
     <t xml:space="preserve">落地配单号</t>
   </si>
   <si>
-    <t xml:space="preserve">寄件人公司</t>
+    <t xml:space="preserve">物流公司</t>
   </si>
   <si>
     <t xml:space="preserve">寄件人</t>
@@ -178,22 +181,27 @@
       <sz val="10"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -201,6 +209,7 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -223,12 +232,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF2C2C2C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2C2C2C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2C2C2C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF2C2C2C"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -272,7 +296,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -297,59 +321,63 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -415,11 +443,11 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF3C3C3C"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF3C3C3C"/>
+      <rgbColor rgb="FF2C2C2C"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -430,168 +458,924 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB65536"/>
+  <dimension ref="A1:IW65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="6:6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.73584905660377"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.7264150943396"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="9.73584905660377"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3584905660377"/>
-    <col collapsed="false" hidden="false" max="19" min="7" style="1" width="9.73584905660377"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="9.73584905660377"/>
-    <col collapsed="false" hidden="false" max="238" min="22" style="3" width="9.73584905660377"/>
-    <col collapsed="false" hidden="false" max="240" min="239" style="4" width="9.73584905660377"/>
-    <col collapsed="false" hidden="false" max="249" min="241" style="3" width="9.73584905660377"/>
-    <col collapsed="false" hidden="false" max="250" min="250" style="0" width="9.73584905660377"/>
-    <col collapsed="false" hidden="false" max="257" min="251" style="3" width="9.73584905660377"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="9.73584905660377"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2169811320755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.5235849056604"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.0849056603774"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.6603773584906"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.2169811320755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.9811320754717"/>
+    <col collapsed="false" hidden="false" max="19" min="7" style="1" width="10.2169811320755"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="10.2169811320755"/>
+    <col collapsed="false" hidden="false" max="238" min="22" style="3" width="10.2169811320755"/>
+    <col collapsed="false" hidden="false" max="240" min="239" style="4" width="10.2169811320755"/>
+    <col collapsed="false" hidden="false" max="249" min="241" style="3" width="10.2169811320755"/>
+    <col collapsed="false" hidden="false" max="250" min="250" style="0" width="10.2169811320755"/>
+    <col collapsed="false" hidden="false" max="257" min="251" style="3" width="10.2169811320755"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="10.2169811320755"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="F1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="K1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="F1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="K1" s="9"/>
     </row>
-    <row r="2" s="11" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="13" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="K2" s="8"/>
+      <c r="F2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="K2" s="9"/>
     </row>
-    <row r="3" s="11" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+    <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="F3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="K3" s="8"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
+      <c r="AK3" s="0"/>
+      <c r="AL3" s="0"/>
+      <c r="AM3" s="0"/>
+      <c r="AN3" s="0"/>
+      <c r="AO3" s="0"/>
+      <c r="AP3" s="0"/>
+      <c r="AQ3" s="0"/>
+      <c r="AR3" s="0"/>
+      <c r="AS3" s="0"/>
+      <c r="AT3" s="0"/>
+      <c r="AU3" s="0"/>
+      <c r="AV3" s="0"/>
+      <c r="AW3" s="0"/>
+      <c r="AX3" s="0"/>
+      <c r="AY3" s="0"/>
+      <c r="AZ3" s="0"/>
+      <c r="BA3" s="0"/>
+      <c r="BB3" s="0"/>
+      <c r="BC3" s="0"/>
+      <c r="BD3" s="0"/>
+      <c r="BE3" s="0"/>
+      <c r="BF3" s="0"/>
+      <c r="BG3" s="0"/>
+      <c r="BH3" s="0"/>
+      <c r="BI3" s="0"/>
+      <c r="BJ3" s="0"/>
+      <c r="BK3" s="0"/>
+      <c r="BL3" s="0"/>
+      <c r="BM3" s="0"/>
+      <c r="BN3" s="0"/>
+      <c r="BO3" s="0"/>
+      <c r="BP3" s="0"/>
+      <c r="BQ3" s="0"/>
+      <c r="BR3" s="0"/>
+      <c r="BS3" s="0"/>
+      <c r="BT3" s="0"/>
+      <c r="BU3" s="0"/>
+      <c r="BV3" s="0"/>
+      <c r="BW3" s="0"/>
+      <c r="BX3" s="0"/>
+      <c r="BY3" s="0"/>
+      <c r="BZ3" s="0"/>
+      <c r="CA3" s="0"/>
+      <c r="CB3" s="0"/>
+      <c r="CC3" s="0"/>
+      <c r="CD3" s="0"/>
+      <c r="CE3" s="0"/>
+      <c r="CF3" s="0"/>
+      <c r="CG3" s="0"/>
+      <c r="CH3" s="0"/>
+      <c r="CI3" s="0"/>
+      <c r="CJ3" s="0"/>
+      <c r="CK3" s="0"/>
+      <c r="CL3" s="0"/>
+      <c r="CM3" s="0"/>
+      <c r="CN3" s="0"/>
+      <c r="CO3" s="0"/>
+      <c r="CP3" s="0"/>
+      <c r="CQ3" s="0"/>
+      <c r="CR3" s="0"/>
+      <c r="CS3" s="0"/>
+      <c r="CT3" s="0"/>
+      <c r="CU3" s="0"/>
+      <c r="CV3" s="0"/>
+      <c r="CW3" s="0"/>
+      <c r="CX3" s="0"/>
+      <c r="CY3" s="0"/>
+      <c r="CZ3" s="0"/>
+      <c r="DA3" s="0"/>
+      <c r="DB3" s="0"/>
+      <c r="DC3" s="0"/>
+      <c r="DD3" s="0"/>
+      <c r="DE3" s="0"/>
+      <c r="DF3" s="0"/>
+      <c r="DG3" s="0"/>
+      <c r="DH3" s="0"/>
+      <c r="DI3" s="0"/>
+      <c r="DJ3" s="0"/>
+      <c r="DK3" s="0"/>
+      <c r="DL3" s="0"/>
+      <c r="DM3" s="0"/>
+      <c r="DN3" s="0"/>
+      <c r="DO3" s="0"/>
+      <c r="DP3" s="0"/>
+      <c r="DQ3" s="0"/>
+      <c r="DR3" s="0"/>
+      <c r="DS3" s="0"/>
+      <c r="DT3" s="0"/>
+      <c r="DU3" s="0"/>
+      <c r="DV3" s="0"/>
+      <c r="DW3" s="0"/>
+      <c r="DX3" s="0"/>
+      <c r="DY3" s="0"/>
+      <c r="DZ3" s="0"/>
+      <c r="EA3" s="0"/>
+      <c r="EB3" s="0"/>
+      <c r="EC3" s="0"/>
+      <c r="ED3" s="0"/>
+      <c r="EE3" s="0"/>
+      <c r="EF3" s="0"/>
+      <c r="EG3" s="0"/>
+      <c r="EH3" s="0"/>
+      <c r="EI3" s="0"/>
+      <c r="EJ3" s="0"/>
+      <c r="EK3" s="0"/>
+      <c r="EL3" s="0"/>
+      <c r="EM3" s="0"/>
+      <c r="EN3" s="0"/>
+      <c r="EO3" s="0"/>
+      <c r="EP3" s="0"/>
+      <c r="EQ3" s="0"/>
+      <c r="ER3" s="0"/>
+      <c r="ES3" s="0"/>
+      <c r="ET3" s="0"/>
+      <c r="EU3" s="0"/>
+      <c r="EV3" s="0"/>
+      <c r="EW3" s="0"/>
+      <c r="EX3" s="0"/>
+      <c r="EY3" s="0"/>
+      <c r="EZ3" s="0"/>
+      <c r="FA3" s="0"/>
+      <c r="FB3" s="0"/>
+      <c r="FC3" s="0"/>
+      <c r="FD3" s="0"/>
+      <c r="FE3" s="0"/>
+      <c r="FF3" s="0"/>
+      <c r="FG3" s="0"/>
+      <c r="FH3" s="0"/>
+      <c r="FI3" s="0"/>
+      <c r="FJ3" s="0"/>
+      <c r="FK3" s="0"/>
+      <c r="FL3" s="0"/>
+      <c r="FM3" s="0"/>
+      <c r="FN3" s="0"/>
+      <c r="FO3" s="0"/>
+      <c r="FP3" s="0"/>
+      <c r="FQ3" s="0"/>
+      <c r="FR3" s="0"/>
+      <c r="FS3" s="0"/>
+      <c r="FT3" s="0"/>
+      <c r="FU3" s="0"/>
+      <c r="FV3" s="0"/>
+      <c r="FW3" s="0"/>
+      <c r="FX3" s="0"/>
+      <c r="FY3" s="0"/>
+      <c r="FZ3" s="0"/>
+      <c r="GA3" s="0"/>
+      <c r="GB3" s="0"/>
+      <c r="GC3" s="0"/>
+      <c r="GD3" s="0"/>
+      <c r="GE3" s="0"/>
+      <c r="GF3" s="0"/>
+      <c r="GG3" s="0"/>
+      <c r="GH3" s="0"/>
+      <c r="GI3" s="0"/>
+      <c r="GJ3" s="0"/>
+      <c r="GK3" s="0"/>
+      <c r="GL3" s="0"/>
+      <c r="GM3" s="0"/>
+      <c r="GN3" s="0"/>
+      <c r="GO3" s="0"/>
+      <c r="GP3" s="0"/>
+      <c r="GQ3" s="0"/>
+      <c r="GR3" s="0"/>
+      <c r="GS3" s="0"/>
+      <c r="GT3" s="0"/>
+      <c r="GU3" s="0"/>
+      <c r="GV3" s="0"/>
+      <c r="GW3" s="0"/>
+      <c r="GX3" s="0"/>
+      <c r="GY3" s="0"/>
+      <c r="GZ3" s="0"/>
+      <c r="HA3" s="0"/>
+      <c r="HB3" s="0"/>
+      <c r="HC3" s="0"/>
+      <c r="HD3" s="0"/>
+      <c r="HE3" s="0"/>
+      <c r="HF3" s="0"/>
+      <c r="HG3" s="0"/>
+      <c r="HH3" s="0"/>
+      <c r="HI3" s="0"/>
+      <c r="HJ3" s="0"/>
+      <c r="HK3" s="0"/>
+      <c r="HL3" s="0"/>
+      <c r="HM3" s="0"/>
+      <c r="HN3" s="0"/>
+      <c r="HO3" s="0"/>
+      <c r="HP3" s="0"/>
+      <c r="HQ3" s="0"/>
+      <c r="HR3" s="0"/>
+      <c r="HS3" s="0"/>
+      <c r="HT3" s="0"/>
+      <c r="HU3" s="0"/>
+      <c r="HV3" s="0"/>
+      <c r="HW3" s="0"/>
+      <c r="HX3" s="0"/>
+      <c r="HY3" s="0"/>
+      <c r="HZ3" s="0"/>
+      <c r="IA3" s="0"/>
+      <c r="IB3" s="0"/>
+      <c r="IC3" s="0"/>
+      <c r="ID3" s="0"/>
+      <c r="IE3" s="0"/>
+      <c r="IF3" s="0"/>
+      <c r="IG3" s="0"/>
+      <c r="IH3" s="0"/>
+      <c r="II3" s="0"/>
+      <c r="IJ3" s="0"/>
+      <c r="IK3" s="0"/>
+      <c r="IL3" s="0"/>
+      <c r="IM3" s="0"/>
+      <c r="IN3" s="0"/>
+      <c r="IO3" s="0"/>
+      <c r="IQ3" s="0"/>
+      <c r="IR3" s="0"/>
+      <c r="IS3" s="0"/>
+      <c r="IT3" s="0"/>
+      <c r="IU3" s="0"/>
+      <c r="IV3" s="0"/>
+      <c r="IW3" s="0"/>
     </row>
-    <row r="4" s="11" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+    <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="F4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="K4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0"/>
+      <c r="AK4" s="0"/>
+      <c r="AL4" s="0"/>
+      <c r="AM4" s="0"/>
+      <c r="AN4" s="0"/>
+      <c r="AO4" s="0"/>
+      <c r="AP4" s="0"/>
+      <c r="AQ4" s="0"/>
+      <c r="AR4" s="0"/>
+      <c r="AS4" s="0"/>
+      <c r="AT4" s="0"/>
+      <c r="AU4" s="0"/>
+      <c r="AV4" s="0"/>
+      <c r="AW4" s="0"/>
+      <c r="AX4" s="0"/>
+      <c r="AY4" s="0"/>
+      <c r="AZ4" s="0"/>
+      <c r="BA4" s="0"/>
+      <c r="BB4" s="0"/>
+      <c r="BC4" s="0"/>
+      <c r="BD4" s="0"/>
+      <c r="BE4" s="0"/>
+      <c r="BF4" s="0"/>
+      <c r="BG4" s="0"/>
+      <c r="BH4" s="0"/>
+      <c r="BI4" s="0"/>
+      <c r="BJ4" s="0"/>
+      <c r="BK4" s="0"/>
+      <c r="BL4" s="0"/>
+      <c r="BM4" s="0"/>
+      <c r="BN4" s="0"/>
+      <c r="BO4" s="0"/>
+      <c r="BP4" s="0"/>
+      <c r="BQ4" s="0"/>
+      <c r="BR4" s="0"/>
+      <c r="BS4" s="0"/>
+      <c r="BT4" s="0"/>
+      <c r="BU4" s="0"/>
+      <c r="BV4" s="0"/>
+      <c r="BW4" s="0"/>
+      <c r="BX4" s="0"/>
+      <c r="BY4" s="0"/>
+      <c r="BZ4" s="0"/>
+      <c r="CA4" s="0"/>
+      <c r="CB4" s="0"/>
+      <c r="CC4" s="0"/>
+      <c r="CD4" s="0"/>
+      <c r="CE4" s="0"/>
+      <c r="CF4" s="0"/>
+      <c r="CG4" s="0"/>
+      <c r="CH4" s="0"/>
+      <c r="CI4" s="0"/>
+      <c r="CJ4" s="0"/>
+      <c r="CK4" s="0"/>
+      <c r="CL4" s="0"/>
+      <c r="CM4" s="0"/>
+      <c r="CN4" s="0"/>
+      <c r="CO4" s="0"/>
+      <c r="CP4" s="0"/>
+      <c r="CQ4" s="0"/>
+      <c r="CR4" s="0"/>
+      <c r="CS4" s="0"/>
+      <c r="CT4" s="0"/>
+      <c r="CU4" s="0"/>
+      <c r="CV4" s="0"/>
+      <c r="CW4" s="0"/>
+      <c r="CX4" s="0"/>
+      <c r="CY4" s="0"/>
+      <c r="CZ4" s="0"/>
+      <c r="DA4" s="0"/>
+      <c r="DB4" s="0"/>
+      <c r="DC4" s="0"/>
+      <c r="DD4" s="0"/>
+      <c r="DE4" s="0"/>
+      <c r="DF4" s="0"/>
+      <c r="DG4" s="0"/>
+      <c r="DH4" s="0"/>
+      <c r="DI4" s="0"/>
+      <c r="DJ4" s="0"/>
+      <c r="DK4" s="0"/>
+      <c r="DL4" s="0"/>
+      <c r="DM4" s="0"/>
+      <c r="DN4" s="0"/>
+      <c r="DO4" s="0"/>
+      <c r="DP4" s="0"/>
+      <c r="DQ4" s="0"/>
+      <c r="DR4" s="0"/>
+      <c r="DS4" s="0"/>
+      <c r="DT4" s="0"/>
+      <c r="DU4" s="0"/>
+      <c r="DV4" s="0"/>
+      <c r="DW4" s="0"/>
+      <c r="DX4" s="0"/>
+      <c r="DY4" s="0"/>
+      <c r="DZ4" s="0"/>
+      <c r="EA4" s="0"/>
+      <c r="EB4" s="0"/>
+      <c r="EC4" s="0"/>
+      <c r="ED4" s="0"/>
+      <c r="EE4" s="0"/>
+      <c r="EF4" s="0"/>
+      <c r="EG4" s="0"/>
+      <c r="EH4" s="0"/>
+      <c r="EI4" s="0"/>
+      <c r="EJ4" s="0"/>
+      <c r="EK4" s="0"/>
+      <c r="EL4" s="0"/>
+      <c r="EM4" s="0"/>
+      <c r="EN4" s="0"/>
+      <c r="EO4" s="0"/>
+      <c r="EP4" s="0"/>
+      <c r="EQ4" s="0"/>
+      <c r="ER4" s="0"/>
+      <c r="ES4" s="0"/>
+      <c r="ET4" s="0"/>
+      <c r="EU4" s="0"/>
+      <c r="EV4" s="0"/>
+      <c r="EW4" s="0"/>
+      <c r="EX4" s="0"/>
+      <c r="EY4" s="0"/>
+      <c r="EZ4" s="0"/>
+      <c r="FA4" s="0"/>
+      <c r="FB4" s="0"/>
+      <c r="FC4" s="0"/>
+      <c r="FD4" s="0"/>
+      <c r="FE4" s="0"/>
+      <c r="FF4" s="0"/>
+      <c r="FG4" s="0"/>
+      <c r="FH4" s="0"/>
+      <c r="FI4" s="0"/>
+      <c r="FJ4" s="0"/>
+      <c r="FK4" s="0"/>
+      <c r="FL4" s="0"/>
+      <c r="FM4" s="0"/>
+      <c r="FN4" s="0"/>
+      <c r="FO4" s="0"/>
+      <c r="FP4" s="0"/>
+      <c r="FQ4" s="0"/>
+      <c r="FR4" s="0"/>
+      <c r="FS4" s="0"/>
+      <c r="FT4" s="0"/>
+      <c r="FU4" s="0"/>
+      <c r="FV4" s="0"/>
+      <c r="FW4" s="0"/>
+      <c r="FX4" s="0"/>
+      <c r="FY4" s="0"/>
+      <c r="FZ4" s="0"/>
+      <c r="GA4" s="0"/>
+      <c r="GB4" s="0"/>
+      <c r="GC4" s="0"/>
+      <c r="GD4" s="0"/>
+      <c r="GE4" s="0"/>
+      <c r="GF4" s="0"/>
+      <c r="GG4" s="0"/>
+      <c r="GH4" s="0"/>
+      <c r="GI4" s="0"/>
+      <c r="GJ4" s="0"/>
+      <c r="GK4" s="0"/>
+      <c r="GL4" s="0"/>
+      <c r="GM4" s="0"/>
+      <c r="GN4" s="0"/>
+      <c r="GO4" s="0"/>
+      <c r="GP4" s="0"/>
+      <c r="GQ4" s="0"/>
+      <c r="GR4" s="0"/>
+      <c r="GS4" s="0"/>
+      <c r="GT4" s="0"/>
+      <c r="GU4" s="0"/>
+      <c r="GV4" s="0"/>
+      <c r="GW4" s="0"/>
+      <c r="GX4" s="0"/>
+      <c r="GY4" s="0"/>
+      <c r="GZ4" s="0"/>
+      <c r="HA4" s="0"/>
+      <c r="HB4" s="0"/>
+      <c r="HC4" s="0"/>
+      <c r="HD4" s="0"/>
+      <c r="HE4" s="0"/>
+      <c r="HF4" s="0"/>
+      <c r="HG4" s="0"/>
+      <c r="HH4" s="0"/>
+      <c r="HI4" s="0"/>
+      <c r="HJ4" s="0"/>
+      <c r="HK4" s="0"/>
+      <c r="HL4" s="0"/>
+      <c r="HM4" s="0"/>
+      <c r="HN4" s="0"/>
+      <c r="HO4" s="0"/>
+      <c r="HP4" s="0"/>
+      <c r="HQ4" s="0"/>
+      <c r="HR4" s="0"/>
+      <c r="HS4" s="0"/>
+      <c r="HT4" s="0"/>
+      <c r="HU4" s="0"/>
+      <c r="HV4" s="0"/>
+      <c r="HW4" s="0"/>
+      <c r="HX4" s="0"/>
+      <c r="HY4" s="0"/>
+      <c r="HZ4" s="0"/>
+      <c r="IA4" s="0"/>
+      <c r="IB4" s="0"/>
+      <c r="IC4" s="0"/>
+      <c r="ID4" s="0"/>
+      <c r="IE4" s="0"/>
+      <c r="IF4" s="0"/>
+      <c r="IG4" s="0"/>
+      <c r="IH4" s="0"/>
+      <c r="II4" s="0"/>
+      <c r="IJ4" s="0"/>
+      <c r="IK4" s="0"/>
+      <c r="IL4" s="0"/>
+      <c r="IM4" s="0"/>
+      <c r="IN4" s="0"/>
+      <c r="IO4" s="0"/>
+      <c r="IQ4" s="0"/>
+      <c r="IR4" s="0"/>
+      <c r="IS4" s="0"/>
+      <c r="IT4" s="0"/>
+      <c r="IU4" s="0"/>
+      <c r="IV4" s="0"/>
+      <c r="IW4" s="0"/>
     </row>
-    <row r="5" s="11" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+    <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="F5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="K5" s="8"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
+      <c r="AK5" s="0"/>
+      <c r="AL5" s="0"/>
+      <c r="AM5" s="0"/>
+      <c r="AN5" s="0"/>
+      <c r="AO5" s="0"/>
+      <c r="AP5" s="0"/>
+      <c r="AQ5" s="0"/>
+      <c r="AR5" s="0"/>
+      <c r="AS5" s="0"/>
+      <c r="AT5" s="0"/>
+      <c r="AU5" s="0"/>
+      <c r="AV5" s="0"/>
+      <c r="AW5" s="0"/>
+      <c r="AX5" s="0"/>
+      <c r="AY5" s="0"/>
+      <c r="AZ5" s="0"/>
+      <c r="BA5" s="0"/>
+      <c r="BB5" s="0"/>
+      <c r="BC5" s="0"/>
+      <c r="BD5" s="0"/>
+      <c r="BE5" s="0"/>
+      <c r="BF5" s="0"/>
+      <c r="BG5" s="0"/>
+      <c r="BH5" s="0"/>
+      <c r="BI5" s="0"/>
+      <c r="BJ5" s="0"/>
+      <c r="BK5" s="0"/>
+      <c r="BL5" s="0"/>
+      <c r="BM5" s="0"/>
+      <c r="BN5" s="0"/>
+      <c r="BO5" s="0"/>
+      <c r="BP5" s="0"/>
+      <c r="BQ5" s="0"/>
+      <c r="BR5" s="0"/>
+      <c r="BS5" s="0"/>
+      <c r="BT5" s="0"/>
+      <c r="BU5" s="0"/>
+      <c r="BV5" s="0"/>
+      <c r="BW5" s="0"/>
+      <c r="BX5" s="0"/>
+      <c r="BY5" s="0"/>
+      <c r="BZ5" s="0"/>
+      <c r="CA5" s="0"/>
+      <c r="CB5" s="0"/>
+      <c r="CC5" s="0"/>
+      <c r="CD5" s="0"/>
+      <c r="CE5" s="0"/>
+      <c r="CF5" s="0"/>
+      <c r="CG5" s="0"/>
+      <c r="CH5" s="0"/>
+      <c r="CI5" s="0"/>
+      <c r="CJ5" s="0"/>
+      <c r="CK5" s="0"/>
+      <c r="CL5" s="0"/>
+      <c r="CM5" s="0"/>
+      <c r="CN5" s="0"/>
+      <c r="CO5" s="0"/>
+      <c r="CP5" s="0"/>
+      <c r="CQ5" s="0"/>
+      <c r="CR5" s="0"/>
+      <c r="CS5" s="0"/>
+      <c r="CT5" s="0"/>
+      <c r="CU5" s="0"/>
+      <c r="CV5" s="0"/>
+      <c r="CW5" s="0"/>
+      <c r="CX5" s="0"/>
+      <c r="CY5" s="0"/>
+      <c r="CZ5" s="0"/>
+      <c r="DA5" s="0"/>
+      <c r="DB5" s="0"/>
+      <c r="DC5" s="0"/>
+      <c r="DD5" s="0"/>
+      <c r="DE5" s="0"/>
+      <c r="DF5" s="0"/>
+      <c r="DG5" s="0"/>
+      <c r="DH5" s="0"/>
+      <c r="DI5" s="0"/>
+      <c r="DJ5" s="0"/>
+      <c r="DK5" s="0"/>
+      <c r="DL5" s="0"/>
+      <c r="DM5" s="0"/>
+      <c r="DN5" s="0"/>
+      <c r="DO5" s="0"/>
+      <c r="DP5" s="0"/>
+      <c r="DQ5" s="0"/>
+      <c r="DR5" s="0"/>
+      <c r="DS5" s="0"/>
+      <c r="DT5" s="0"/>
+      <c r="DU5" s="0"/>
+      <c r="DV5" s="0"/>
+      <c r="DW5" s="0"/>
+      <c r="DX5" s="0"/>
+      <c r="DY5" s="0"/>
+      <c r="DZ5" s="0"/>
+      <c r="EA5" s="0"/>
+      <c r="EB5" s="0"/>
+      <c r="EC5" s="0"/>
+      <c r="ED5" s="0"/>
+      <c r="EE5" s="0"/>
+      <c r="EF5" s="0"/>
+      <c r="EG5" s="0"/>
+      <c r="EH5" s="0"/>
+      <c r="EI5" s="0"/>
+      <c r="EJ5" s="0"/>
+      <c r="EK5" s="0"/>
+      <c r="EL5" s="0"/>
+      <c r="EM5" s="0"/>
+      <c r="EN5" s="0"/>
+      <c r="EO5" s="0"/>
+      <c r="EP5" s="0"/>
+      <c r="EQ5" s="0"/>
+      <c r="ER5" s="0"/>
+      <c r="ES5" s="0"/>
+      <c r="ET5" s="0"/>
+      <c r="EU5" s="0"/>
+      <c r="EV5" s="0"/>
+      <c r="EW5" s="0"/>
+      <c r="EX5" s="0"/>
+      <c r="EY5" s="0"/>
+      <c r="EZ5" s="0"/>
+      <c r="FA5" s="0"/>
+      <c r="FB5" s="0"/>
+      <c r="FC5" s="0"/>
+      <c r="FD5" s="0"/>
+      <c r="FE5" s="0"/>
+      <c r="FF5" s="0"/>
+      <c r="FG5" s="0"/>
+      <c r="FH5" s="0"/>
+      <c r="FI5" s="0"/>
+      <c r="FJ5" s="0"/>
+      <c r="FK5" s="0"/>
+      <c r="FL5" s="0"/>
+      <c r="FM5" s="0"/>
+      <c r="FN5" s="0"/>
+      <c r="FO5" s="0"/>
+      <c r="FP5" s="0"/>
+      <c r="FQ5" s="0"/>
+      <c r="FR5" s="0"/>
+      <c r="FS5" s="0"/>
+      <c r="FT5" s="0"/>
+      <c r="FU5" s="0"/>
+      <c r="FV5" s="0"/>
+      <c r="FW5" s="0"/>
+      <c r="FX5" s="0"/>
+      <c r="FY5" s="0"/>
+      <c r="FZ5" s="0"/>
+      <c r="GA5" s="0"/>
+      <c r="GB5" s="0"/>
+      <c r="GC5" s="0"/>
+      <c r="GD5" s="0"/>
+      <c r="GE5" s="0"/>
+      <c r="GF5" s="0"/>
+      <c r="GG5" s="0"/>
+      <c r="GH5" s="0"/>
+      <c r="GI5" s="0"/>
+      <c r="GJ5" s="0"/>
+      <c r="GK5" s="0"/>
+      <c r="GL5" s="0"/>
+      <c r="GM5" s="0"/>
+      <c r="GN5" s="0"/>
+      <c r="GO5" s="0"/>
+      <c r="GP5" s="0"/>
+      <c r="GQ5" s="0"/>
+      <c r="GR5" s="0"/>
+      <c r="GS5" s="0"/>
+      <c r="GT5" s="0"/>
+      <c r="GU5" s="0"/>
+      <c r="GV5" s="0"/>
+      <c r="GW5" s="0"/>
+      <c r="GX5" s="0"/>
+      <c r="GY5" s="0"/>
+      <c r="GZ5" s="0"/>
+      <c r="HA5" s="0"/>
+      <c r="HB5" s="0"/>
+      <c r="HC5" s="0"/>
+      <c r="HD5" s="0"/>
+      <c r="HE5" s="0"/>
+      <c r="HF5" s="0"/>
+      <c r="HG5" s="0"/>
+      <c r="HH5" s="0"/>
+      <c r="HI5" s="0"/>
+      <c r="HJ5" s="0"/>
+      <c r="HK5" s="0"/>
+      <c r="HL5" s="0"/>
+      <c r="HM5" s="0"/>
+      <c r="HN5" s="0"/>
+      <c r="HO5" s="0"/>
+      <c r="HP5" s="0"/>
+      <c r="HQ5" s="0"/>
+      <c r="HR5" s="0"/>
+      <c r="HS5" s="0"/>
+      <c r="HT5" s="0"/>
+      <c r="HU5" s="0"/>
+      <c r="HV5" s="0"/>
+      <c r="HW5" s="0"/>
+      <c r="HX5" s="0"/>
+      <c r="HY5" s="0"/>
+      <c r="HZ5" s="0"/>
+      <c r="IA5" s="0"/>
+      <c r="IB5" s="0"/>
+      <c r="IC5" s="0"/>
+      <c r="ID5" s="0"/>
+      <c r="IE5" s="0"/>
+      <c r="IF5" s="0"/>
+      <c r="IG5" s="0"/>
+      <c r="IH5" s="0"/>
+      <c r="II5" s="0"/>
+      <c r="IJ5" s="0"/>
+      <c r="IK5" s="0"/>
+      <c r="IL5" s="0"/>
+      <c r="IM5" s="0"/>
+      <c r="IN5" s="0"/>
+      <c r="IO5" s="0"/>
+      <c r="IQ5" s="0"/>
+      <c r="IR5" s="0"/>
+      <c r="IS5" s="0"/>
+      <c r="IT5" s="0"/>
+      <c r="IU5" s="0"/>
+      <c r="IV5" s="0"/>
+      <c r="IW5" s="0"/>
     </row>
-    <row r="6" s="6" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+    <row r="6" s="20" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="U6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="X6" s="16" t="s">
+      <c r="X6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Y6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="Z6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AA6" s="17" t="s">
+      <c r="AA6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AB6" s="16" t="s">
+      <c r="AB6" s="19" t="s">
         <v>35</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -599,7 +1383,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.120138888888889" right="0.0402777777777778" top="0.159722222222222" bottom="0.230555555555556" header="0.511805555555555" footer="0.140277777777778"/>
@@ -619,12 +1403,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.73584905660377"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2169811320755"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
